--- a/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010048663123578</v>
+        <v>1.002590441470383</v>
       </c>
       <c r="D2">
-        <v>1.031911831269942</v>
+        <v>1.025852283176114</v>
       </c>
       <c r="E2">
-        <v>1.014488894277768</v>
+        <v>1.008657692282398</v>
       </c>
       <c r="F2">
-        <v>1.036084934185129</v>
+        <v>1.029919124431271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054060841775063</v>
+        <v>1.05082124226031</v>
       </c>
       <c r="J2">
-        <v>1.031932918878585</v>
+        <v>1.024693947976362</v>
       </c>
       <c r="K2">
-        <v>1.042943789349046</v>
+        <v>1.03696283080481</v>
       </c>
       <c r="L2">
-        <v>1.025749999780425</v>
+        <v>1.019997715148618</v>
       </c>
       <c r="M2">
-        <v>1.04706343688602</v>
+        <v>1.040976799298217</v>
       </c>
       <c r="N2">
-        <v>1.033398381987753</v>
+        <v>1.026149130916527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017168218292206</v>
+        <v>1.007350985594774</v>
       </c>
       <c r="D3">
-        <v>1.037548767660358</v>
+        <v>1.029562948554286</v>
       </c>
       <c r="E3">
-        <v>1.020428143452</v>
+        <v>1.012475557796507</v>
       </c>
       <c r="F3">
-        <v>1.042266425619026</v>
+        <v>1.03414656397262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056582823844579</v>
+        <v>1.052308894103102</v>
       </c>
       <c r="J3">
-        <v>1.03720155579992</v>
+        <v>1.027643241726208</v>
       </c>
       <c r="K3">
-        <v>1.047722730891361</v>
+        <v>1.039831038931789</v>
       </c>
       <c r="L3">
-        <v>1.030806147847189</v>
+        <v>1.022951261780156</v>
       </c>
       <c r="M3">
-        <v>1.052385620231664</v>
+        <v>1.044360408211126</v>
       </c>
       <c r="N3">
-        <v>1.038674500977837</v>
+        <v>1.029102613001787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021643980809111</v>
+        <v>1.010366067286486</v>
       </c>
       <c r="D4">
-        <v>1.041094268023003</v>
+        <v>1.031913473183661</v>
       </c>
       <c r="E4">
-        <v>1.024167396529512</v>
+        <v>1.014899725664253</v>
       </c>
       <c r="F4">
-        <v>1.046157188083597</v>
+        <v>1.036826563949265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058153801828836</v>
+        <v>1.053236981420977</v>
       </c>
       <c r="J4">
-        <v>1.040509780652868</v>
+        <v>1.029508274248442</v>
       </c>
       <c r="K4">
-        <v>1.050720784332658</v>
+        <v>1.041641403696828</v>
       </c>
       <c r="L4">
-        <v>1.033982636301815</v>
+        <v>1.024821589520415</v>
       </c>
       <c r="M4">
-        <v>1.055728711520992</v>
+        <v>1.046499948211182</v>
       </c>
       <c r="N4">
-        <v>1.041987423889536</v>
+        <v>1.030970294084125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023495880380854</v>
+        <v>1.01161855039699</v>
       </c>
       <c r="D5">
-        <v>1.042561590260987</v>
+        <v>1.032889926446424</v>
       </c>
       <c r="E5">
-        <v>1.025715791378647</v>
+        <v>1.015908162750291</v>
       </c>
       <c r="F5">
-        <v>1.047768069125645</v>
+        <v>1.037940411263819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058800270470449</v>
+        <v>1.053619074942955</v>
       </c>
       <c r="J5">
-        <v>1.041877587636088</v>
+        <v>1.030282286748477</v>
       </c>
       <c r="K5">
-        <v>1.051959681073682</v>
+        <v>1.042391897708917</v>
       </c>
       <c r="L5">
-        <v>1.035296372977219</v>
+        <v>1.025598424341586</v>
       </c>
       <c r="M5">
-        <v>1.057111209483771</v>
+        <v>1.047387840849981</v>
       </c>
       <c r="N5">
-        <v>1.043357173315561</v>
+        <v>1.03174540577069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023805126220803</v>
+        <v>1.011827981093471</v>
       </c>
       <c r="D6">
-        <v>1.042806632673264</v>
+        <v>1.03305320164525</v>
       </c>
       <c r="E6">
-        <v>1.025974425697174</v>
+        <v>1.016076868242823</v>
       </c>
       <c r="F6">
-        <v>1.04803712555357</v>
+        <v>1.038126691653855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058908013081038</v>
+        <v>1.053682761986847</v>
       </c>
       <c r="J6">
-        <v>1.042105934414581</v>
+        <v>1.03041166703549</v>
       </c>
       <c r="K6">
-        <v>1.052166467161006</v>
+        <v>1.042517297429674</v>
       </c>
       <c r="L6">
-        <v>1.03551571619078</v>
+        <v>1.025728313118395</v>
       </c>
       <c r="M6">
-        <v>1.05734202436686</v>
+        <v>1.047536253912432</v>
       </c>
       <c r="N6">
-        <v>1.043585844372671</v>
+        <v>1.03187496979255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021668840619179</v>
+        <v>1.010382861448721</v>
       </c>
       <c r="D7">
-        <v>1.041113964111026</v>
+        <v>1.031926566101342</v>
       </c>
       <c r="E7">
-        <v>1.024188177328602</v>
+        <v>1.014913241926701</v>
       </c>
       <c r="F7">
-        <v>1.04617880851646</v>
+        <v>1.036841497048154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058162494094082</v>
+        <v>1.053242118454823</v>
       </c>
       <c r="J7">
-        <v>1.040528146106047</v>
+        <v>1.029518655691446</v>
       </c>
       <c r="K7">
-        <v>1.050737421590057</v>
+        <v>1.04165147300349</v>
       </c>
       <c r="L7">
-        <v>1.034000274195152</v>
+        <v>1.024832006348874</v>
       </c>
       <c r="M7">
-        <v>1.055747273169259</v>
+        <v>1.046511857259421</v>
       </c>
       <c r="N7">
-        <v>1.042005815423764</v>
+        <v>1.030980690269967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012482934370138</v>
+        <v>1.004213169992693</v>
       </c>
       <c r="D8">
-        <v>1.033838731635524</v>
+        <v>1.02711702142502</v>
       </c>
       <c r="E8">
-        <v>1.016518389491503</v>
+        <v>1.009957773623163</v>
       </c>
       <c r="F8">
-        <v>1.038197409284257</v>
+        <v>1.031359562222423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054926154007971</v>
+        <v>1.051331267375021</v>
       </c>
       <c r="J8">
-        <v>1.033735127564303</v>
+        <v>1.025699859077458</v>
       </c>
       <c r="K8">
-        <v>1.044579043732835</v>
+        <v>1.037941788289411</v>
       </c>
       <c r="L8">
-        <v>1.027479162550576</v>
+        <v>1.021004529021658</v>
       </c>
       <c r="M8">
-        <v>1.048883684431714</v>
+        <v>1.042130864014198</v>
       </c>
       <c r="N8">
-        <v>1.03520315001652</v>
+        <v>1.027156470526766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9952098492228677</v>
+        <v>0.9928135946154275</v>
       </c>
       <c r="D9">
-        <v>1.020178232391162</v>
+        <v>1.018236529393951</v>
       </c>
       <c r="E9">
-        <v>1.00214513199315</v>
+        <v>1.0008529142051</v>
       </c>
       <c r="F9">
-        <v>1.023232700891791</v>
+        <v>1.02125382414309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048726516833592</v>
+        <v>1.047690587168329</v>
       </c>
       <c r="J9">
-        <v>1.020932901458793</v>
+        <v>1.018622700829397</v>
       </c>
       <c r="K9">
-        <v>1.032952200258143</v>
+        <v>1.031040501814523</v>
       </c>
       <c r="L9">
-        <v>1.015203501538672</v>
+        <v>1.013932168611594</v>
       </c>
       <c r="M9">
-        <v>1.035959762957988</v>
+        <v>1.03401123388868</v>
       </c>
       <c r="N9">
-        <v>1.022382743281505</v>
+        <v>1.020069261902231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828348777549856</v>
+        <v>0.9848177116559248</v>
       </c>
       <c r="D10">
-        <v>1.010413074191012</v>
+        <v>1.012015979273054</v>
       </c>
       <c r="E10">
-        <v>0.9918879801967768</v>
+        <v>0.9945048474799533</v>
       </c>
       <c r="F10">
-        <v>1.012549307375274</v>
+        <v>1.014185119785239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044212150198783</v>
+        <v>1.045065924661092</v>
       </c>
       <c r="J10">
-        <v>1.011746480666721</v>
+        <v>1.013646918157199</v>
       </c>
       <c r="K10">
-        <v>1.024596828635225</v>
+        <v>1.026171618543331</v>
       </c>
       <c r="L10">
-        <v>1.006405260773898</v>
+        <v>1.008974032514725</v>
       </c>
       <c r="M10">
-        <v>1.026695617561078</v>
+        <v>1.028302895236493</v>
       </c>
       <c r="N10">
-        <v>1.013183276718211</v>
+        <v>1.01508641304791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9772388853196884</v>
+        <v>0.9812513581274563</v>
       </c>
       <c r="D11">
-        <v>1.006004468594072</v>
+        <v>1.009244492930681</v>
       </c>
       <c r="E11">
-        <v>0.9872610266849066</v>
+        <v>0.99168338926769</v>
       </c>
       <c r="F11">
-        <v>1.007729323550363</v>
+        <v>1.011037934781388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042154698505638</v>
+        <v>1.043879233231598</v>
       </c>
       <c r="J11">
-        <v>1.00759019632581</v>
+        <v>1.011425451409942</v>
       </c>
       <c r="K11">
-        <v>1.020814030894897</v>
+        <v>1.023994152325611</v>
       </c>
       <c r="L11">
-        <v>1.002427247535137</v>
+        <v>1.006763867621584</v>
       </c>
       <c r="M11">
-        <v>1.022506933518088</v>
+        <v>1.025754651260969</v>
       </c>
       <c r="N11">
-        <v>1.009021089976804</v>
+        <v>1.012861791563065</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751213001304474</v>
+        <v>0.9799100838660108</v>
       </c>
       <c r="D12">
-        <v>1.004337487787058</v>
+        <v>1.008202709210808</v>
       </c>
       <c r="E12">
-        <v>0.9855120138878048</v>
+        <v>0.9906238328722871</v>
       </c>
       <c r="F12">
-        <v>1.005907253338281</v>
+        <v>1.009855238370368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041373843136993</v>
+        <v>1.043430593635963</v>
       </c>
       <c r="J12">
-        <v>1.006017210741188</v>
+        <v>1.010589711118419</v>
       </c>
       <c r="K12">
-        <v>1.019382057516081</v>
+        <v>1.023174427675674</v>
       </c>
       <c r="L12">
-        <v>1.000922146027683</v>
+        <v>1.005932897353092</v>
       </c>
       <c r="M12">
-        <v>1.020922148081599</v>
+        <v>1.024796032250791</v>
       </c>
       <c r="N12">
-        <v>1.007445870572227</v>
+        <v>1.012024864424467</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755773509582344</v>
+        <v>0.9801985574441259</v>
       </c>
       <c r="D13">
-        <v>1.004696433449018</v>
+        <v>1.008426743772672</v>
       </c>
       <c r="E13">
-        <v>0.9858885999494738</v>
+        <v>0.9908516440025885</v>
       </c>
       <c r="F13">
-        <v>1.006299573366582</v>
+        <v>1.010109562363299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041542112460888</v>
+        <v>1.043527188763335</v>
       </c>
       <c r="J13">
-        <v>1.006355981614993</v>
+        <v>1.01076946842796</v>
       </c>
       <c r="K13">
-        <v>1.019690473408578</v>
+        <v>1.023350764157723</v>
       </c>
       <c r="L13">
-        <v>1.001246277757888</v>
+        <v>1.006111605216933</v>
       </c>
       <c r="M13">
-        <v>1.021263438608582</v>
+        <v>1.025002216314727</v>
       </c>
       <c r="N13">
-        <v>1.00778512253953</v>
+        <v>1.012204877010006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770646608807442</v>
+        <v>0.9811408316932568</v>
       </c>
       <c r="D14">
-        <v>1.005867290396726</v>
+        <v>1.009158634040004</v>
       </c>
       <c r="E14">
-        <v>0.9871170874373073</v>
+        <v>0.9915960451767124</v>
       </c>
       <c r="F14">
-        <v>1.007579373572928</v>
+        <v>1.010940456340186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042090499369854</v>
+        <v>1.04384231053487</v>
       </c>
       <c r="J14">
-        <v>1.007460782187581</v>
+        <v>1.011356588093695</v>
       </c>
       <c r="K14">
-        <v>1.020696224843051</v>
+        <v>1.023926619465545</v>
       </c>
       <c r="L14">
-        <v>1.002303409875616</v>
+        <v>1.006695386793868</v>
       </c>
       <c r="M14">
-        <v>1.022376538914445</v>
+        <v>1.025675661696371</v>
       </c>
       <c r="N14">
-        <v>1.008891492055654</v>
+        <v>1.01279283045301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.977975770147573</v>
+        <v>0.9817191728830715</v>
       </c>
       <c r="D15">
-        <v>1.006584719226282</v>
+        <v>1.009607922610946</v>
       </c>
       <c r="E15">
-        <v>0.9878698972216251</v>
+        <v>0.9920531467349493</v>
       </c>
       <c r="F15">
-        <v>1.008363616229953</v>
+        <v>1.011450561053772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042426137225177</v>
+        <v>1.044035417708185</v>
       </c>
       <c r="J15">
-        <v>1.00813754789034</v>
+        <v>1.011716912138054</v>
       </c>
       <c r="K15">
-        <v>1.021312273089288</v>
+        <v>1.024279960179112</v>
       </c>
       <c r="L15">
-        <v>1.002951030631172</v>
+        <v>1.007053730620019</v>
       </c>
       <c r="M15">
-        <v>1.023058450991056</v>
+        <v>1.02608897334216</v>
       </c>
       <c r="N15">
-        <v>1.009569218843337</v>
+        <v>1.013153666198842</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832009884505923</v>
+        <v>0.9850521277192457</v>
       </c>
       <c r="D16">
-        <v>1.010701667369858</v>
+        <v>1.012198219562853</v>
       </c>
       <c r="E16">
-        <v>0.9921909417946787</v>
+        <v>0.9946905148241048</v>
       </c>
       <c r="F16">
-        <v>1.012864894320279</v>
+        <v>1.014392108293784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044346433838332</v>
+        <v>1.045143598106113</v>
       </c>
       <c r="J16">
-        <v>1.012018365566445</v>
+        <v>1.013792894917244</v>
       </c>
       <c r="K16">
-        <v>1.024844233057032</v>
+        <v>1.026314628232943</v>
       </c>
       <c r="L16">
-        <v>1.006665540224156</v>
+        <v>1.009119338172393</v>
       </c>
       <c r="M16">
-        <v>1.026969682945583</v>
+        <v>1.028470352303794</v>
       </c>
       <c r="N16">
-        <v>1.013455547725678</v>
+        <v>1.015232597111697</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9864128306200847</v>
+        <v>0.9871142983638619</v>
       </c>
       <c r="D17">
-        <v>1.013234295414847</v>
+        <v>1.013801752179754</v>
       </c>
       <c r="E17">
-        <v>0.99485008555481</v>
+        <v>0.9963249786737306</v>
       </c>
       <c r="F17">
-        <v>1.015634769983318</v>
+        <v>1.016213647057673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045522688854941</v>
+        <v>1.045825081085935</v>
       </c>
       <c r="J17">
-        <v>1.014403346269565</v>
+        <v>1.015076822430174</v>
       </c>
       <c r="K17">
-        <v>1.027014191430108</v>
+        <v>1.027572038208151</v>
       </c>
       <c r="L17">
-        <v>1.008949018004502</v>
+        <v>1.0103977526245</v>
       </c>
       <c r="M17">
-        <v>1.029374108140598</v>
+        <v>1.029943241620547</v>
       </c>
       <c r="N17">
-        <v>1.015843915374958</v>
+        <v>1.016518347948963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882635670769406</v>
+        <v>0.9883071518193606</v>
       </c>
       <c r="D18">
-        <v>1.014694318276788</v>
+        <v>1.014729589017346</v>
       </c>
       <c r="E18">
-        <v>0.996383400024897</v>
+        <v>0.9972713630156759</v>
       </c>
       <c r="F18">
-        <v>1.017231862026826</v>
+        <v>1.017267835272964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046198957446275</v>
+        <v>1.046217757462185</v>
       </c>
       <c r="J18">
-        <v>1.01577741448389</v>
+        <v>1.015819296956787</v>
       </c>
       <c r="K18">
-        <v>1.028264139213351</v>
+        <v>1.028298823658668</v>
       </c>
       <c r="L18">
-        <v>1.010264854080647</v>
+        <v>1.011137363100259</v>
       </c>
       <c r="M18">
-        <v>1.030759635638441</v>
+        <v>1.030795014745239</v>
       </c>
       <c r="N18">
-        <v>1.017219934923755</v>
+        <v>1.017261876874567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9888908675201589</v>
+        <v>0.9887122191837767</v>
       </c>
       <c r="D19">
-        <v>1.015189295014262</v>
+        <v>1.015044707329217</v>
       </c>
       <c r="E19">
-        <v>0.996903285687649</v>
+        <v>0.9975928913092642</v>
       </c>
       <c r="F19">
-        <v>1.017773359172222</v>
+        <v>1.017625901820186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046427915751599</v>
+        <v>1.046350841207321</v>
       </c>
       <c r="J19">
-        <v>1.016243110577308</v>
+        <v>1.016071388462369</v>
       </c>
       <c r="K19">
-        <v>1.028687727065545</v>
+        <v>1.028545527515781</v>
       </c>
       <c r="L19">
-        <v>1.010710855680164</v>
+        <v>1.011388537042412</v>
       </c>
       <c r="M19">
-        <v>1.031229257724892</v>
+        <v>1.031084220036547</v>
       </c>
       <c r="N19">
-        <v>1.017686292359042</v>
+        <v>1.017514326379003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9860705984227707</v>
+        <v>0.9868940853405553</v>
       </c>
       <c r="D20">
-        <v>1.012964365235234</v>
+        <v>1.013630485982054</v>
       </c>
       <c r="E20">
-        <v>0.9945666343354359</v>
+        <v>0.9961503415170722</v>
       </c>
       <c r="F20">
-        <v>1.01533952269836</v>
+        <v>1.016019075081835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045397511847667</v>
+        <v>1.04575246523836</v>
       </c>
       <c r="J20">
-        <v>1.014149240031836</v>
+        <v>1.014939736810699</v>
       </c>
       <c r="K20">
-        <v>1.026783019153421</v>
+        <v>1.027437820508024</v>
       </c>
       <c r="L20">
-        <v>1.008705700522979</v>
+        <v>1.010261221981096</v>
       </c>
       <c r="M20">
-        <v>1.029117903215483</v>
+        <v>1.029785977733632</v>
       </c>
       <c r="N20">
-        <v>1.015589448277225</v>
+        <v>1.016381067652185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.976627789901178</v>
+        <v>0.9808638207374618</v>
       </c>
       <c r="D21">
-        <v>1.005523334910972</v>
+        <v>1.008943456177713</v>
       </c>
       <c r="E21">
-        <v>0.9867561879357138</v>
+        <v>0.9913771613700385</v>
       </c>
       <c r="F21">
-        <v>1.007203401960136</v>
+        <v>1.010696162718871</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041929482406308</v>
+        <v>1.043749734304638</v>
       </c>
       <c r="J21">
-        <v>1.007136271056709</v>
+        <v>1.011183992777432</v>
       </c>
       <c r="K21">
-        <v>1.02040081617081</v>
+        <v>1.02375735014718</v>
       </c>
       <c r="L21">
-        <v>1.00199288873914</v>
+        <v>1.006523758484659</v>
       </c>
       <c r="M21">
-        <v>1.022049576825675</v>
+        <v>1.025477687496522</v>
       </c>
       <c r="N21">
-        <v>1.008566520081754</v>
+        <v>1.012619990031601</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9704632178622133</v>
+        <v>0.9769759588093138</v>
       </c>
       <c r="D22">
-        <v>1.000673214568553</v>
+        <v>1.00592485473198</v>
       </c>
       <c r="E22">
-        <v>0.9816683553701111</v>
+        <v>0.9883089600089668</v>
       </c>
       <c r="F22">
-        <v>1.001902902058763</v>
+        <v>1.00726982833151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039652095437333</v>
+        <v>1.04244495300975</v>
       </c>
       <c r="J22">
-        <v>1.002556868051968</v>
+        <v>1.008761050443968</v>
       </c>
       <c r="K22">
-        <v>1.016231346733593</v>
+        <v>1.021379845795851</v>
       </c>
       <c r="L22">
-        <v>0.9976119278882987</v>
+        <v>1.004115631685903</v>
       </c>
       <c r="M22">
-        <v>1.017436756107432</v>
+        <v>1.022698631200122</v>
       </c>
       <c r="N22">
-        <v>1.003980613799482</v>
+        <v>1.010193606842108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9737539525115663</v>
+        <v>0.9790464561822664</v>
       </c>
       <c r="D23">
-        <v>1.003261489028243</v>
+        <v>1.007532085807306</v>
       </c>
       <c r="E23">
-        <v>0.9843832097644039</v>
+        <v>0.9899420516481235</v>
       </c>
       <c r="F23">
-        <v>1.004731275712406</v>
+        <v>1.009093990790256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040869005734503</v>
+        <v>1.043141072214548</v>
       </c>
       <c r="J23">
-        <v>1.005001476649063</v>
+        <v>1.010051522030973</v>
       </c>
       <c r="K23">
-        <v>1.01845729036367</v>
+        <v>1.022646403369041</v>
       </c>
       <c r="L23">
-        <v>0.9999503668485978</v>
+        <v>1.005397926535356</v>
       </c>
       <c r="M23">
-        <v>1.019898930947736</v>
+        <v>1.024178732023926</v>
       </c>
       <c r="N23">
-        <v>1.006428694021186</v>
+        <v>1.011485911046786</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9862253082552582</v>
+        <v>0.9869936208865467</v>
       </c>
       <c r="D24">
-        <v>1.013086388093636</v>
+        <v>1.013707896864575</v>
       </c>
       <c r="E24">
-        <v>0.9946947683141095</v>
+        <v>0.9962292740278053</v>
       </c>
       <c r="F24">
-        <v>1.015472989309583</v>
+        <v>1.016107019332219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045454104210323</v>
+        <v>1.045785292090225</v>
       </c>
       <c r="J24">
-        <v>1.014264112221256</v>
+        <v>1.015001699697911</v>
       </c>
       <c r="K24">
-        <v>1.02688752447773</v>
+        <v>1.027498488192638</v>
       </c>
       <c r="L24">
-        <v>1.00881569474172</v>
+        <v>1.010322933013562</v>
       </c>
       <c r="M24">
-        <v>1.029233723351324</v>
+        <v>1.029857061148887</v>
       </c>
       <c r="N24">
-        <v>1.01570448359833</v>
+        <v>1.016443118533805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9998165336566081</v>
+        <v>0.9958272806128416</v>
       </c>
       <c r="D25">
-        <v>1.023818386198374</v>
+        <v>1.020583128163275</v>
       </c>
       <c r="E25">
-        <v>1.005972111140428</v>
+        <v>1.003253631863208</v>
       </c>
       <c r="F25">
-        <v>1.027217939055885</v>
+        <v>1.023922377873383</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050392702115143</v>
+        <v>1.048665550087949</v>
       </c>
       <c r="J25">
-        <v>1.02435007375361</v>
+        <v>1.02049589407446</v>
       </c>
       <c r="K25">
-        <v>1.036057871194295</v>
+        <v>1.032870104614324</v>
       </c>
       <c r="L25">
-        <v>1.018478419825614</v>
+        <v>1.015801648488295</v>
       </c>
       <c r="M25">
-        <v>1.03940792950585</v>
+        <v>1.036160342657347</v>
       </c>
       <c r="N25">
-        <v>1.025804768352936</v>
+        <v>1.021945115296561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002590441470383</v>
+        <v>0.9988434299023096</v>
       </c>
       <c r="D2">
-        <v>1.025852283176114</v>
+        <v>1.022811561974128</v>
       </c>
       <c r="E2">
-        <v>1.008657692282398</v>
+        <v>1.005490734398769</v>
       </c>
       <c r="F2">
-        <v>1.029919124431271</v>
+        <v>1.030813449638822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05082124226031</v>
+        <v>1.049401668786621</v>
       </c>
       <c r="J2">
-        <v>1.024693947976362</v>
+        <v>1.021058788897324</v>
       </c>
       <c r="K2">
-        <v>1.03696283080481</v>
+        <v>1.033961986233011</v>
       </c>
       <c r="L2">
-        <v>1.019997715148618</v>
+        <v>1.016874100930664</v>
       </c>
       <c r="M2">
-        <v>1.040976799298217</v>
+        <v>1.041859567447141</v>
       </c>
       <c r="N2">
-        <v>1.026149130916527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011002652253705</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041701429354187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007350985594774</v>
+        <v>1.002509799690437</v>
       </c>
       <c r="D3">
-        <v>1.029562948554286</v>
+        <v>1.025378501664489</v>
       </c>
       <c r="E3">
-        <v>1.012475557796507</v>
+        <v>1.008353000125672</v>
       </c>
       <c r="F3">
-        <v>1.03414656397262</v>
+        <v>1.033417083328685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052308894103102</v>
+        <v>1.050251971950956</v>
       </c>
       <c r="J3">
-        <v>1.027643241726208</v>
+        <v>1.02293227808744</v>
       </c>
       <c r="K3">
-        <v>1.039831038931789</v>
+        <v>1.03569663951146</v>
       </c>
       <c r="L3">
-        <v>1.022951261780156</v>
+        <v>1.018880106845921</v>
       </c>
       <c r="M3">
-        <v>1.044360408211126</v>
+        <v>1.043639520949569</v>
       </c>
       <c r="N3">
-        <v>1.029102613001787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011628907477972</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043110139497777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010366067286486</v>
+        <v>1.004840097628972</v>
       </c>
       <c r="D4">
-        <v>1.031913473183661</v>
+        <v>1.027010804074574</v>
       </c>
       <c r="E4">
-        <v>1.014899725664253</v>
+        <v>1.010178083107332</v>
       </c>
       <c r="F4">
-        <v>1.036826563949265</v>
+        <v>1.035076039580935</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053236981420977</v>
+        <v>1.050778978638875</v>
       </c>
       <c r="J4">
-        <v>1.029508274248442</v>
+        <v>1.024120798359007</v>
       </c>
       <c r="K4">
-        <v>1.041641403696828</v>
+        <v>1.036793806082916</v>
       </c>
       <c r="L4">
-        <v>1.024821589520415</v>
+        <v>1.02015520028912</v>
       </c>
       <c r="M4">
-        <v>1.046499948211182</v>
+        <v>1.044768785542705</v>
       </c>
       <c r="N4">
-        <v>1.030970294084125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012026110282488</v>
+      </c>
+      <c r="O4">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.044003872938964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01161855039699</v>
+        <v>1.005809964394359</v>
       </c>
       <c r="D5">
-        <v>1.032889926446424</v>
+        <v>1.027690306246534</v>
       </c>
       <c r="E5">
-        <v>1.015908162750291</v>
+        <v>1.010939053856663</v>
       </c>
       <c r="F5">
-        <v>1.037940411263819</v>
+        <v>1.035767436178182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053619074942955</v>
+        <v>1.050995045306563</v>
       </c>
       <c r="J5">
-        <v>1.030282286748477</v>
+        <v>1.024614891542242</v>
       </c>
       <c r="K5">
-        <v>1.042391897708917</v>
+        <v>1.03724911768117</v>
       </c>
       <c r="L5">
-        <v>1.025598424341586</v>
+        <v>1.02068588785205</v>
       </c>
       <c r="M5">
-        <v>1.047387840849981</v>
+        <v>1.045238252436286</v>
       </c>
       <c r="N5">
-        <v>1.03174540577069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012191213704874</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044375422619213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011827981093471</v>
+        <v>1.005972243261808</v>
       </c>
       <c r="D6">
-        <v>1.03305320164525</v>
+        <v>1.027804007917349</v>
       </c>
       <c r="E6">
-        <v>1.016076868242823</v>
+        <v>1.011066459880814</v>
       </c>
       <c r="F6">
-        <v>1.038126691653855</v>
+        <v>1.035883175176131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053682761986847</v>
+        <v>1.051031003963061</v>
       </c>
       <c r="J6">
-        <v>1.03041166703549</v>
+        <v>1.024697529436454</v>
       </c>
       <c r="K6">
-        <v>1.042517297429674</v>
+        <v>1.03732522152382</v>
       </c>
       <c r="L6">
-        <v>1.025728313118395</v>
+        <v>1.020774681812862</v>
       </c>
       <c r="M6">
-        <v>1.047536253912432</v>
+        <v>1.045316771637508</v>
       </c>
       <c r="N6">
-        <v>1.03187496979255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01221882617133</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044437564968012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010382861448721</v>
+        <v>1.004853095135342</v>
       </c>
       <c r="D7">
-        <v>1.031926566101342</v>
+        <v>1.027019909819038</v>
       </c>
       <c r="E7">
-        <v>1.014913241926701</v>
+        <v>1.010188275748062</v>
       </c>
       <c r="F7">
-        <v>1.036841497048154</v>
+        <v>1.035085301561148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053242118454823</v>
+        <v>1.050781887205819</v>
       </c>
       <c r="J7">
-        <v>1.029518655691446</v>
+        <v>1.024127422142724</v>
       </c>
       <c r="K7">
-        <v>1.04165147300349</v>
+        <v>1.03679991316155</v>
       </c>
       <c r="L7">
-        <v>1.024832006348874</v>
+        <v>1.020162312264969</v>
       </c>
       <c r="M7">
-        <v>1.046511857259421</v>
+        <v>1.044775079173901</v>
       </c>
       <c r="N7">
-        <v>1.030980690269967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012028323738955</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044008853902004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004213169992693</v>
+        <v>1.00009138712029</v>
       </c>
       <c r="D8">
-        <v>1.02711702142502</v>
+        <v>1.023685100523402</v>
       </c>
       <c r="E8">
-        <v>1.009957773623163</v>
+        <v>1.006463743276575</v>
       </c>
       <c r="F8">
-        <v>1.031359562222423</v>
+        <v>1.031698781744856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051331267375021</v>
+        <v>1.049693876607472</v>
       </c>
       <c r="J8">
-        <v>1.025699859077458</v>
+        <v>1.021696938763777</v>
       </c>
       <c r="K8">
-        <v>1.037941788289411</v>
+        <v>1.034553522006036</v>
       </c>
       <c r="L8">
-        <v>1.021004529021658</v>
+        <v>1.017556865159005</v>
       </c>
       <c r="M8">
-        <v>1.042130864014198</v>
+        <v>1.042465832316967</v>
       </c>
       <c r="N8">
-        <v>1.027156470526766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011215985154902</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042181246392824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928135946154275</v>
+        <v>0.9913648790131955</v>
       </c>
       <c r="D9">
-        <v>1.018236529393951</v>
+        <v>1.017582144959958</v>
       </c>
       <c r="E9">
-        <v>1.0008529142051</v>
+        <v>0.9996860130730834</v>
       </c>
       <c r="F9">
-        <v>1.02125382414309</v>
+        <v>1.025527364736696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047690587168329</v>
+        <v>1.047595864933806</v>
       </c>
       <c r="J9">
-        <v>1.018622700829397</v>
+        <v>1.017226294456724</v>
       </c>
       <c r="K9">
-        <v>1.031040501814523</v>
+        <v>1.03039626234665</v>
       </c>
       <c r="L9">
-        <v>1.013932168611594</v>
+        <v>1.012784186551008</v>
       </c>
       <c r="M9">
-        <v>1.03401123388868</v>
+        <v>1.03821942321148</v>
       </c>
       <c r="N9">
-        <v>1.020069261902231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009721148680168</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03882049829538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9848177116559248</v>
+        <v>0.9853406999978327</v>
       </c>
       <c r="D10">
-        <v>1.012015979273054</v>
+        <v>1.013396425096461</v>
       </c>
       <c r="E10">
-        <v>0.9945048474799533</v>
+        <v>0.9950468124287479</v>
       </c>
       <c r="F10">
-        <v>1.014185119785239</v>
+        <v>1.021365616465071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045065924661092</v>
+        <v>1.046098570003127</v>
       </c>
       <c r="J10">
-        <v>1.013646918157199</v>
+        <v>1.014148252345251</v>
       </c>
       <c r="K10">
-        <v>1.026171618543331</v>
+        <v>1.027527943463764</v>
       </c>
       <c r="L10">
-        <v>1.008974032514725</v>
+        <v>1.009506077831624</v>
       </c>
       <c r="M10">
-        <v>1.028302895236493</v>
+        <v>1.035359533826466</v>
       </c>
       <c r="N10">
-        <v>1.01508641304791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008695728255408</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036608634067537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9812513581274563</v>
+        <v>0.9829682029651476</v>
       </c>
       <c r="D11">
-        <v>1.009244492930681</v>
+        <v>1.011889888222048</v>
       </c>
       <c r="E11">
-        <v>0.99168338926769</v>
+        <v>0.9932686492122433</v>
       </c>
       <c r="F11">
-        <v>1.011037934781388</v>
+        <v>1.020300846941953</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043879233231598</v>
+        <v>1.04563064337849</v>
       </c>
       <c r="J11">
-        <v>1.011425451409942</v>
+        <v>1.013067100188177</v>
       </c>
       <c r="K11">
-        <v>1.023994152325611</v>
+        <v>1.026591008823029</v>
       </c>
       <c r="L11">
-        <v>1.006763867621584</v>
+        <v>1.008318635302153</v>
       </c>
       <c r="M11">
-        <v>1.025754651260969</v>
+        <v>1.034849811788675</v>
       </c>
       <c r="N11">
-        <v>1.012861791563065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00837042921686</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036642380302504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799100838660108</v>
+        <v>0.9821701325583212</v>
       </c>
       <c r="D12">
-        <v>1.008202709210808</v>
+        <v>1.011430520766006</v>
       </c>
       <c r="E12">
-        <v>0.9906238328722871</v>
+        <v>0.9926874267070819</v>
       </c>
       <c r="F12">
-        <v>1.009855238370368</v>
+        <v>1.020165008999349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043430593635963</v>
+        <v>1.045518583723133</v>
       </c>
       <c r="J12">
-        <v>1.010589711118419</v>
+        <v>1.012748733917652</v>
       </c>
       <c r="K12">
-        <v>1.023174427675674</v>
+        <v>1.026341958340472</v>
       </c>
       <c r="L12">
-        <v>1.005932897353092</v>
+        <v>1.00795607796925</v>
       </c>
       <c r="M12">
-        <v>1.024796032250791</v>
+        <v>1.034915814594179</v>
       </c>
       <c r="N12">
-        <v>1.012024864424467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008292720878674</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037021573103597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9801985574441259</v>
+        <v>0.9825356744465606</v>
       </c>
       <c r="D13">
-        <v>1.008426743772672</v>
+        <v>1.011753203027251</v>
       </c>
       <c r="E13">
-        <v>0.9908516440025885</v>
+        <v>0.9929903271426403</v>
       </c>
       <c r="F13">
-        <v>1.010109562363299</v>
+        <v>1.020750983511284</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043527188763335</v>
+        <v>1.045682519309261</v>
       </c>
       <c r="J13">
-        <v>1.01076946842796</v>
+        <v>1.013002597916141</v>
       </c>
       <c r="K13">
-        <v>1.023350764157723</v>
+        <v>1.026615352123629</v>
       </c>
       <c r="L13">
-        <v>1.006111605216933</v>
+        <v>1.00820857501243</v>
       </c>
       <c r="M13">
-        <v>1.025002216314727</v>
+        <v>1.035448403789931</v>
       </c>
       <c r="N13">
-        <v>1.012204877010006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008402441199044</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037719764881063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811408316932568</v>
+        <v>0.9833173198114045</v>
       </c>
       <c r="D14">
-        <v>1.009158634040004</v>
+        <v>1.012331461720099</v>
       </c>
       <c r="E14">
-        <v>0.9915960451767124</v>
+        <v>0.9936015582853095</v>
       </c>
       <c r="F14">
-        <v>1.010940456340186</v>
+        <v>1.021485947501952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04384231053487</v>
+        <v>1.045920856023208</v>
       </c>
       <c r="J14">
-        <v>1.011356588093695</v>
+        <v>1.013437644386294</v>
       </c>
       <c r="K14">
-        <v>1.023926619465545</v>
+        <v>1.027041181265498</v>
       </c>
       <c r="L14">
-        <v>1.006695386793868</v>
+        <v>1.008662285856692</v>
       </c>
       <c r="M14">
-        <v>1.025675661696371</v>
+        <v>1.036030188221862</v>
       </c>
       <c r="N14">
-        <v>1.01279283045301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008563367568984</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038353175553246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817191728830715</v>
+        <v>0.9837645615533988</v>
       </c>
       <c r="D15">
-        <v>1.009607922610946</v>
+        <v>1.012648962598665</v>
       </c>
       <c r="E15">
-        <v>0.9920531467349493</v>
+        <v>0.9939466482637392</v>
       </c>
       <c r="F15">
-        <v>1.011450561053772</v>
+        <v>1.021836069066296</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044035417708185</v>
+        <v>1.046042965215045</v>
       </c>
       <c r="J15">
-        <v>1.011716912138054</v>
+        <v>1.013673423245116</v>
       </c>
       <c r="K15">
-        <v>1.024279960179112</v>
+        <v>1.027265591357854</v>
       </c>
       <c r="L15">
-        <v>1.007053730620019</v>
+        <v>1.0089110638793</v>
       </c>
       <c r="M15">
-        <v>1.02608897334216</v>
+        <v>1.036287904324295</v>
       </c>
       <c r="N15">
-        <v>1.013153666198842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008645268772059</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038594446647205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850521277192457</v>
+        <v>0.9862492607513774</v>
       </c>
       <c r="D16">
-        <v>1.012198219562853</v>
+        <v>1.01437107155181</v>
       </c>
       <c r="E16">
-        <v>0.9946905148241048</v>
+        <v>0.9958496911583766</v>
       </c>
       <c r="F16">
-        <v>1.014392108293784</v>
+        <v>1.023522846831972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045143598106113</v>
+        <v>1.046670249835978</v>
       </c>
       <c r="J16">
-        <v>1.013792894917244</v>
+        <v>1.01494070178838</v>
       </c>
       <c r="K16">
-        <v>1.026314628232943</v>
+        <v>1.02844968050033</v>
       </c>
       <c r="L16">
-        <v>1.009119338172393</v>
+        <v>1.010257387811698</v>
       </c>
       <c r="M16">
-        <v>1.028470352303794</v>
+        <v>1.037444521823817</v>
       </c>
       <c r="N16">
-        <v>1.015232597111697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009062572424709</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039469880752221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9871142983638619</v>
+        <v>0.9877469125901227</v>
       </c>
       <c r="D17">
-        <v>1.013801752179754</v>
+        <v>1.015389172089373</v>
       </c>
       <c r="E17">
-        <v>0.9963249786737306</v>
+        <v>0.9969918359151897</v>
       </c>
       <c r="F17">
-        <v>1.016213647057673</v>
+        <v>1.024426699094951</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045825081085935</v>
+        <v>1.047022562418449</v>
       </c>
       <c r="J17">
-        <v>1.015076822430174</v>
+        <v>1.015684240909126</v>
       </c>
       <c r="K17">
-        <v>1.027572038208151</v>
+        <v>1.029132648452551</v>
       </c>
       <c r="L17">
-        <v>1.0103977526245</v>
+        <v>1.01105281552912</v>
       </c>
       <c r="M17">
-        <v>1.029943241620547</v>
+        <v>1.038019578849098</v>
       </c>
       <c r="N17">
-        <v>1.016518347948963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009298041880954</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039795265027573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9883071518193606</v>
+        <v>0.988529229055813</v>
       </c>
       <c r="D18">
-        <v>1.014729589017346</v>
+        <v>1.015879414346397</v>
       </c>
       <c r="E18">
-        <v>0.9972713630156759</v>
+        <v>0.9975761496796128</v>
       </c>
       <c r="F18">
-        <v>1.017267835272964</v>
+        <v>1.024698668632144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046217757462185</v>
+        <v>1.047162687355212</v>
       </c>
       <c r="J18">
-        <v>1.015819296956787</v>
+        <v>1.016032703918281</v>
       </c>
       <c r="K18">
-        <v>1.028298823658668</v>
+        <v>1.029429564480607</v>
       </c>
       <c r="L18">
-        <v>1.011137363100259</v>
+        <v>1.011436853512931</v>
       </c>
       <c r="M18">
-        <v>1.030795014745239</v>
+        <v>1.038104267790884</v>
       </c>
       <c r="N18">
-        <v>1.017261876874567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009393499595155</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039624281356419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9887122191837767</v>
+        <v>0.9886440812654324</v>
       </c>
       <c r="D19">
-        <v>1.015044707329217</v>
+        <v>1.015869317813422</v>
       </c>
       <c r="E19">
-        <v>0.9975928913092642</v>
+        <v>0.9976376120686932</v>
       </c>
       <c r="F19">
-        <v>1.017625901820186</v>
+        <v>1.02437492833186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046350841207321</v>
+        <v>1.047101063504368</v>
       </c>
       <c r="J19">
-        <v>1.016071388462369</v>
+        <v>1.016005893192474</v>
       </c>
       <c r="K19">
-        <v>1.028545527515781</v>
+        <v>1.029356529750463</v>
       </c>
       <c r="L19">
-        <v>1.011388537042412</v>
+        <v>1.011432485252761</v>
       </c>
       <c r="M19">
-        <v>1.031084220036547</v>
+        <v>1.037723416141204</v>
       </c>
       <c r="N19">
-        <v>1.017514326379003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009357702926012</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038997246893285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868940853405553</v>
+        <v>0.9869022197431315</v>
       </c>
       <c r="D20">
-        <v>1.013630485982054</v>
+        <v>1.014481507228181</v>
       </c>
       <c r="E20">
-        <v>0.9961503415170722</v>
+        <v>0.9962469130068171</v>
       </c>
       <c r="F20">
-        <v>1.016019075081835</v>
+        <v>1.02244592694481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04575246523836</v>
+        <v>1.04649231227699</v>
       </c>
       <c r="J20">
-        <v>1.014939736810699</v>
+        <v>1.01494754572584</v>
       </c>
       <c r="K20">
-        <v>1.027437820508024</v>
+        <v>1.028274408259006</v>
       </c>
       <c r="L20">
-        <v>1.010261221981096</v>
+        <v>1.010356078519789</v>
       </c>
       <c r="M20">
-        <v>1.029785977733632</v>
+        <v>1.0361052494501</v>
       </c>
       <c r="N20">
-        <v>1.016381067652185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008962194551205</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037188217810108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9808638207374618</v>
+        <v>0.9823219452375839</v>
       </c>
       <c r="D21">
-        <v>1.008943456177713</v>
+        <v>1.01127490434391</v>
       </c>
       <c r="E21">
-        <v>0.9913771613700385</v>
+        <v>0.992724528952218</v>
       </c>
       <c r="F21">
-        <v>1.010696162718871</v>
+        <v>1.0191804055431</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043749734304638</v>
+        <v>1.045304161782223</v>
       </c>
       <c r="J21">
-        <v>1.011183992777432</v>
+        <v>1.012577834679792</v>
       </c>
       <c r="K21">
-        <v>1.02375735014718</v>
+        <v>1.026045772957474</v>
       </c>
       <c r="L21">
-        <v>1.006523758484659</v>
+        <v>1.007845060870249</v>
       </c>
       <c r="M21">
-        <v>1.025477687496522</v>
+        <v>1.033807288037448</v>
       </c>
       <c r="N21">
-        <v>1.012619990031601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00816631832327</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035328572422256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9769759588093138</v>
+        <v>0.9794040831943873</v>
       </c>
       <c r="D22">
-        <v>1.00592485473198</v>
+        <v>1.009244380250027</v>
       </c>
       <c r="E22">
-        <v>0.9883089600089668</v>
+        <v>0.9904912169638013</v>
       </c>
       <c r="F22">
-        <v>1.00726982833151</v>
+        <v>1.01714308342996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04244495300975</v>
+        <v>1.044543204144986</v>
       </c>
       <c r="J22">
-        <v>1.008761050443968</v>
+        <v>1.011075644615034</v>
       </c>
       <c r="K22">
-        <v>1.021379845795851</v>
+        <v>1.024634901999225</v>
       </c>
       <c r="L22">
-        <v>1.004115631685903</v>
+        <v>1.006253427868067</v>
       </c>
       <c r="M22">
-        <v>1.022698631200122</v>
+        <v>1.03238241418482</v>
       </c>
       <c r="N22">
-        <v>1.010193606842108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007663794239543</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034200871235064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790464561822664</v>
+        <v>0.9809564828614875</v>
       </c>
       <c r="D23">
-        <v>1.007532085807306</v>
+        <v>1.010324380425888</v>
       </c>
       <c r="E23">
-        <v>0.9899420516481235</v>
+        <v>0.9916786407942131</v>
       </c>
       <c r="F23">
-        <v>1.009093990790256</v>
+        <v>1.018226355022488</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043141072214548</v>
+        <v>1.044949256664475</v>
       </c>
       <c r="J23">
-        <v>1.010051522030973</v>
+        <v>1.011874967800716</v>
       </c>
       <c r="K23">
-        <v>1.022646403369041</v>
+        <v>1.025385907047894</v>
       </c>
       <c r="L23">
-        <v>1.005397926535356</v>
+        <v>1.007100086953566</v>
       </c>
       <c r="M23">
-        <v>1.024178732023926</v>
+        <v>1.033140532426506</v>
       </c>
       <c r="N23">
-        <v>1.011485911046786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007931192695216</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034800876041926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869936208865467</v>
+        <v>0.9869468416468814</v>
       </c>
       <c r="D24">
-        <v>1.013707896864575</v>
+        <v>1.014498144831115</v>
       </c>
       <c r="E24">
-        <v>0.9962292740278053</v>
+        <v>0.9962772234989291</v>
       </c>
       <c r="F24">
-        <v>1.016107019332219</v>
+        <v>1.022420289262234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045785292090225</v>
+        <v>1.046489597509277</v>
       </c>
       <c r="J24">
-        <v>1.015001699697911</v>
+        <v>1.014956789242643</v>
       </c>
       <c r="K24">
-        <v>1.027498488192638</v>
+        <v>1.028275352204914</v>
       </c>
       <c r="L24">
-        <v>1.010322933013562</v>
+        <v>1.010370032201044</v>
       </c>
       <c r="M24">
-        <v>1.029857061148887</v>
+        <v>1.036064796076477</v>
       </c>
       <c r="N24">
-        <v>1.016443118533805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008962086847042</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037115249362347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9958272806128416</v>
+        <v>0.9936626456525317</v>
       </c>
       <c r="D25">
-        <v>1.020583128163275</v>
+        <v>1.019187773884014</v>
       </c>
       <c r="E25">
-        <v>1.003253631863208</v>
+        <v>1.001464805062685</v>
       </c>
       <c r="F25">
-        <v>1.023922377873383</v>
+        <v>1.027147952403769</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048665550087949</v>
+        <v>1.048160138807397</v>
       </c>
       <c r="J25">
-        <v>1.02049589407446</v>
+        <v>1.018405185627803</v>
       </c>
       <c r="K25">
-        <v>1.032870104614324</v>
+        <v>1.031495351458476</v>
       </c>
       <c r="L25">
-        <v>1.015801648488295</v>
+        <v>1.014040424298008</v>
       </c>
       <c r="M25">
-        <v>1.036160342657347</v>
+        <v>1.039338957611391</v>
       </c>
       <c r="N25">
-        <v>1.021945115296561</v>
+        <v>1.010115393311156</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039706536233819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9988434299023096</v>
+        <v>0.9988825142530265</v>
       </c>
       <c r="D2">
-        <v>1.022811561974128</v>
+        <v>1.022444287334475</v>
       </c>
       <c r="E2">
-        <v>1.005490734398769</v>
+        <v>1.005527092812111</v>
       </c>
       <c r="F2">
-        <v>1.030813449638822</v>
+        <v>1.030602274726988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049401668786621</v>
+        <v>1.049213651344407</v>
       </c>
       <c r="J2">
-        <v>1.021058788897324</v>
+        <v>1.021096700577283</v>
       </c>
       <c r="K2">
-        <v>1.033961986233011</v>
+        <v>1.033599548237061</v>
       </c>
       <c r="L2">
-        <v>1.016874100930664</v>
+        <v>1.016909959783092</v>
       </c>
       <c r="M2">
-        <v>1.041859567447141</v>
+        <v>1.041651119213311</v>
       </c>
       <c r="N2">
-        <v>1.011002652253705</v>
+        <v>1.012849995636636</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041701429354187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041536456808739</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021063329840335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002509799690437</v>
+        <v>1.002400275514274</v>
       </c>
       <c r="D3">
-        <v>1.025378501664489</v>
+        <v>1.024814044332367</v>
       </c>
       <c r="E3">
-        <v>1.008353000125672</v>
+        <v>1.008260373275506</v>
       </c>
       <c r="F3">
-        <v>1.033417083328685</v>
+        <v>1.033066391031578</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050251971950956</v>
+        <v>1.049961432643743</v>
       </c>
       <c r="J3">
-        <v>1.02293227808744</v>
+        <v>1.022825719785623</v>
       </c>
       <c r="K3">
-        <v>1.03569663951146</v>
+        <v>1.035138972114337</v>
       </c>
       <c r="L3">
-        <v>1.018880106845921</v>
+        <v>1.018788640947602</v>
       </c>
       <c r="M3">
-        <v>1.043639520949569</v>
+        <v>1.043292965205034</v>
       </c>
       <c r="N3">
-        <v>1.011628907477972</v>
+        <v>1.013309619171947</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043110139497777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042835864798652</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021370555088907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004840097628972</v>
+        <v>1.004637108222602</v>
       </c>
       <c r="D4">
-        <v>1.027010804074574</v>
+        <v>1.026321707440573</v>
       </c>
       <c r="E4">
-        <v>1.010178083107332</v>
+        <v>1.010004201970754</v>
       </c>
       <c r="F4">
-        <v>1.035076039580935</v>
+        <v>1.034637275652984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050778978638875</v>
+        <v>1.050423518886684</v>
       </c>
       <c r="J4">
-        <v>1.024120798359007</v>
+        <v>1.023922935523513</v>
       </c>
       <c r="K4">
-        <v>1.036793806082916</v>
+        <v>1.036112502021317</v>
       </c>
       <c r="L4">
-        <v>1.02015520028912</v>
+        <v>1.01998336614366</v>
       </c>
       <c r="M4">
-        <v>1.044768785542705</v>
+        <v>1.044334887197664</v>
       </c>
       <c r="N4">
-        <v>1.012026110282488</v>
+        <v>1.013601255652638</v>
       </c>
       <c r="O4">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044003872938964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043660473068808</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021562235824844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005809964394359</v>
+        <v>1.005568297443019</v>
       </c>
       <c r="D5">
-        <v>1.027690306246534</v>
+        <v>1.026949491704203</v>
       </c>
       <c r="E5">
-        <v>1.010939053856663</v>
+        <v>1.010731520546009</v>
       </c>
       <c r="F5">
-        <v>1.035767436178182</v>
+        <v>1.035292153862106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050995045306563</v>
+        <v>1.050612619741063</v>
       </c>
       <c r="J5">
-        <v>1.024614891542242</v>
+        <v>1.024379146425099</v>
       </c>
       <c r="K5">
-        <v>1.03724911768117</v>
+        <v>1.03651645898788</v>
       </c>
       <c r="L5">
-        <v>1.02068588785205</v>
+        <v>1.020480732205484</v>
       </c>
       <c r="M5">
-        <v>1.045238252436286</v>
+        <v>1.044768101395071</v>
       </c>
       <c r="N5">
-        <v>1.012191213704874</v>
+        <v>1.013722505707902</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044375422619213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044003331484598</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021641138137053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005972243261808</v>
+        <v>1.005724117421182</v>
       </c>
       <c r="D6">
-        <v>1.027804007917349</v>
+        <v>1.027054548877534</v>
       </c>
       <c r="E6">
-        <v>1.011066459880814</v>
+        <v>1.010853305356694</v>
       </c>
       <c r="F6">
-        <v>1.035883175176131</v>
+        <v>1.035401790393959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051031003963061</v>
+        <v>1.050644069519239</v>
       </c>
       <c r="J6">
-        <v>1.024697529436454</v>
+        <v>1.024455452625544</v>
       </c>
       <c r="K6">
-        <v>1.03732522152382</v>
+        <v>1.036583976035872</v>
       </c>
       <c r="L6">
-        <v>1.020774681812862</v>
+        <v>1.020563958114528</v>
       </c>
       <c r="M6">
-        <v>1.045316771637508</v>
+        <v>1.044840560435705</v>
       </c>
       <c r="N6">
-        <v>1.01221882617133</v>
+        <v>1.01374278551306</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044437564968012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044060677677817</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021654288300479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004853095135342</v>
+        <v>1.004657043358588</v>
       </c>
       <c r="D7">
-        <v>1.027019909819038</v>
+        <v>1.026335348344845</v>
       </c>
       <c r="E7">
-        <v>1.010188275748062</v>
+        <v>1.010020578654119</v>
       </c>
       <c r="F7">
-        <v>1.035085301561148</v>
+        <v>1.034650361782616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050781887205819</v>
+        <v>1.050428815274518</v>
       </c>
       <c r="J7">
-        <v>1.024127422142724</v>
+        <v>1.023936319694945</v>
       </c>
       <c r="K7">
-        <v>1.03679991316155</v>
+        <v>1.036123090179581</v>
       </c>
       <c r="L7">
-        <v>1.020162312264969</v>
+        <v>1.019996588635276</v>
       </c>
       <c r="M7">
-        <v>1.044775079173901</v>
+        <v>1.044344960836989</v>
       </c>
       <c r="N7">
-        <v>1.012028323738955</v>
+        <v>1.013630691244708</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044008853902004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043668445644115</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021564797886676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00009138712029</v>
+        <v>1.000102585204787</v>
       </c>
       <c r="D8">
-        <v>1.023685100523402</v>
+        <v>1.023266641138776</v>
       </c>
       <c r="E8">
-        <v>1.006463743276575</v>
+        <v>1.006476447230368</v>
       </c>
       <c r="F8">
-        <v>1.031698781744856</v>
+        <v>1.031453260228259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049693876607472</v>
+        <v>1.049479354290872</v>
       </c>
       <c r="J8">
-        <v>1.021696938763777</v>
+        <v>1.021707812102028</v>
       </c>
       <c r="K8">
-        <v>1.034553522006036</v>
+        <v>1.03414041052432</v>
       </c>
       <c r="L8">
-        <v>1.017556865159005</v>
+        <v>1.017569399796661</v>
       </c>
       <c r="M8">
-        <v>1.042465832316967</v>
+        <v>1.042223387414804</v>
       </c>
       <c r="N8">
-        <v>1.011215985154902</v>
+        <v>1.013091114705358</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042181246392824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041989367929016</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021173266255023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9913648790131955</v>
+        <v>0.9917394272374557</v>
       </c>
       <c r="D9">
-        <v>1.017582144959958</v>
+        <v>1.017639650938324</v>
       </c>
       <c r="E9">
-        <v>0.9996860130730834</v>
+        <v>1.000013244333151</v>
       </c>
       <c r="F9">
-        <v>1.025527364736696</v>
+        <v>1.025619674946127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047595864933806</v>
+        <v>1.047628123735555</v>
       </c>
       <c r="J9">
-        <v>1.017226294456724</v>
+        <v>1.017587298201915</v>
       </c>
       <c r="K9">
-        <v>1.03039626234665</v>
+        <v>1.03045287613788</v>
       </c>
       <c r="L9">
-        <v>1.012784186551008</v>
+        <v>1.013106106660881</v>
       </c>
       <c r="M9">
-        <v>1.03821942321148</v>
+        <v>1.038310329466714</v>
       </c>
       <c r="N9">
-        <v>1.009721148680168</v>
+        <v>1.012005112514843</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03882049829538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038892444665851</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02042294713164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9853406999978327</v>
+        <v>0.9860033267626958</v>
       </c>
       <c r="D10">
-        <v>1.013396425096461</v>
+        <v>1.013807429818059</v>
       </c>
       <c r="E10">
-        <v>0.9950468124287479</v>
+        <v>0.9956229353492035</v>
       </c>
       <c r="F10">
-        <v>1.021365616465071</v>
+        <v>1.021712337461687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046098570003127</v>
+        <v>1.046313577898498</v>
       </c>
       <c r="J10">
-        <v>1.014148252345251</v>
+        <v>1.014783490162175</v>
       </c>
       <c r="K10">
-        <v>1.027527943463764</v>
+        <v>1.027931783019865</v>
       </c>
       <c r="L10">
-        <v>1.009506077831624</v>
+        <v>1.010071671339298</v>
       </c>
       <c r="M10">
-        <v>1.035359533826466</v>
+        <v>1.035700331068967</v>
       </c>
       <c r="N10">
-        <v>1.008695728255408</v>
+        <v>1.011379557454492</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036608634067537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03687833676523</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019902306762007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9829682029651476</v>
+        <v>0.9837785028662897</v>
       </c>
       <c r="D11">
-        <v>1.011889888222048</v>
+        <v>1.012456928770247</v>
       </c>
       <c r="E11">
-        <v>0.9932686492122433</v>
+        <v>0.9939713358453204</v>
       </c>
       <c r="F11">
-        <v>1.020300846941953</v>
+        <v>1.020763823943149</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04563064337849</v>
+        <v>1.045926427827153</v>
       </c>
       <c r="J11">
-        <v>1.013067100188177</v>
+        <v>1.013842040006884</v>
       </c>
       <c r="K11">
-        <v>1.026591008823029</v>
+        <v>1.027147688052578</v>
       </c>
       <c r="L11">
-        <v>1.008318635302153</v>
+        <v>1.009007846574244</v>
       </c>
       <c r="M11">
-        <v>1.034849811788675</v>
+        <v>1.035304508002685</v>
       </c>
       <c r="N11">
-        <v>1.00837042921686</v>
+        <v>1.011382795471546</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036642380302504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037002039596359</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019767250636091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9821701325583212</v>
+        <v>0.9830303449281093</v>
       </c>
       <c r="D12">
-        <v>1.011430520766006</v>
+        <v>1.012048159556169</v>
       </c>
       <c r="E12">
-        <v>0.9926874267070819</v>
+        <v>0.9934318384550714</v>
       </c>
       <c r="F12">
-        <v>1.020165008999349</v>
+        <v>1.020666308232838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045518583723133</v>
+        <v>1.045840585106833</v>
       </c>
       <c r="J12">
-        <v>1.012748733917652</v>
+        <v>1.013570668798387</v>
       </c>
       <c r="K12">
-        <v>1.026341958340472</v>
+        <v>1.026948119599813</v>
       </c>
       <c r="L12">
-        <v>1.00795607796925</v>
+        <v>1.008685965273928</v>
       </c>
       <c r="M12">
-        <v>1.034915814594179</v>
+        <v>1.035408003190239</v>
       </c>
       <c r="N12">
-        <v>1.008292720878674</v>
+        <v>1.01143194074662</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037021573103597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037410756206556</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019743472730611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9825356744465606</v>
+        <v>0.9833631608430441</v>
       </c>
       <c r="D13">
-        <v>1.011753203027251</v>
+        <v>1.012335852475042</v>
       </c>
       <c r="E13">
-        <v>0.9929903271426403</v>
+        <v>0.9937048249366734</v>
       </c>
       <c r="F13">
-        <v>1.020750983511284</v>
+        <v>1.021226858488902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045682519309261</v>
+        <v>1.045986478794183</v>
       </c>
       <c r="J13">
-        <v>1.013002597916141</v>
+        <v>1.013793435673695</v>
       </c>
       <c r="K13">
-        <v>1.026615352123629</v>
+        <v>1.027187218994692</v>
       </c>
       <c r="L13">
-        <v>1.00820857501243</v>
+        <v>1.008909189537499</v>
       </c>
       <c r="M13">
-        <v>1.035448403789931</v>
+        <v>1.035915671668925</v>
       </c>
       <c r="N13">
-        <v>1.008402441199044</v>
+        <v>1.011485354509898</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037719764881063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038089149564944</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019805698306987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9833173198114045</v>
+        <v>0.9840854979248863</v>
       </c>
       <c r="D14">
-        <v>1.012331461720099</v>
+        <v>1.012851741385624</v>
       </c>
       <c r="E14">
-        <v>0.9936015582853095</v>
+        <v>0.9942637409336244</v>
       </c>
       <c r="F14">
-        <v>1.021485947501952</v>
+        <v>1.021915892413835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045920856023208</v>
+        <v>1.04619259784836</v>
       </c>
       <c r="J14">
-        <v>1.013437644386294</v>
+        <v>1.014172284396902</v>
       </c>
       <c r="K14">
-        <v>1.027041181265498</v>
+        <v>1.027551951854764</v>
       </c>
       <c r="L14">
-        <v>1.008662285856692</v>
+        <v>1.009311763653476</v>
       </c>
       <c r="M14">
-        <v>1.036030188221862</v>
+        <v>1.036452455976276</v>
       </c>
       <c r="N14">
-        <v>1.008563367568984</v>
+        <v>1.011525476523624</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038353175553246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03868694156567</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01988785201765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9837645615533988</v>
+        <v>0.9845004959897</v>
       </c>
       <c r="D15">
-        <v>1.012648962598665</v>
+        <v>1.013135221228727</v>
       </c>
       <c r="E15">
-        <v>0.9939466482637392</v>
+        <v>0.9945807312665033</v>
       </c>
       <c r="F15">
-        <v>1.021836069066296</v>
+        <v>1.022240864275461</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046042965215045</v>
+        <v>1.046297120806892</v>
       </c>
       <c r="J15">
-        <v>1.013673423245116</v>
+        <v>1.014377508327684</v>
       </c>
       <c r="K15">
-        <v>1.027265591357854</v>
+        <v>1.027743030306234</v>
       </c>
       <c r="L15">
-        <v>1.0089110638793</v>
+        <v>1.009533075352433</v>
       </c>
       <c r="M15">
-        <v>1.036287904324295</v>
+        <v>1.036685526909252</v>
       </c>
       <c r="N15">
-        <v>1.008645268772059</v>
+        <v>1.011540457653235</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038594446647205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038908724505025</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019928790697815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9862492607513774</v>
+        <v>0.9868193012684068</v>
       </c>
       <c r="D16">
-        <v>1.01437107155181</v>
+        <v>1.014678529007996</v>
       </c>
       <c r="E16">
-        <v>0.9958496911583766</v>
+        <v>0.9963404549458253</v>
       </c>
       <c r="F16">
-        <v>1.023522846831972</v>
+        <v>1.023795495927088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046670249835978</v>
+        <v>1.046831909965962</v>
       </c>
       <c r="J16">
-        <v>1.01494070178838</v>
+        <v>1.015487314344124</v>
       </c>
       <c r="K16">
-        <v>1.02844968050033</v>
+        <v>1.028751806233489</v>
       </c>
       <c r="L16">
-        <v>1.010257387811698</v>
+        <v>1.010739226401392</v>
       </c>
       <c r="M16">
-        <v>1.037444521823817</v>
+        <v>1.037712551098234</v>
       </c>
       <c r="N16">
-        <v>1.009062572424709</v>
+        <v>1.011624572266883</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039469880752221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.039681735100953</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020137367081173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9877469125901227</v>
+        <v>0.9882289025065787</v>
       </c>
       <c r="D17">
-        <v>1.015389172089373</v>
+        <v>1.015597774578959</v>
       </c>
       <c r="E17">
-        <v>0.9969918359151897</v>
+        <v>0.9974069747707786</v>
       </c>
       <c r="F17">
-        <v>1.024426699094951</v>
+        <v>1.024626680469419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047022562418449</v>
+        <v>1.04713304982641</v>
       </c>
       <c r="J17">
-        <v>1.015684240909126</v>
+        <v>1.016147064798601</v>
       </c>
       <c r="K17">
-        <v>1.029132648452551</v>
+        <v>1.029337735925799</v>
       </c>
       <c r="L17">
-        <v>1.01105281552912</v>
+        <v>1.011460622380699</v>
       </c>
       <c r="M17">
-        <v>1.038019578849098</v>
+        <v>1.038216266487055</v>
       </c>
       <c r="N17">
-        <v>1.009298041880954</v>
+        <v>1.011696709911139</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039795265027573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.039950745396411</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020254310753142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.988529229055813</v>
+        <v>0.988973208552521</v>
       </c>
       <c r="D18">
-        <v>1.015879414346397</v>
+        <v>1.016043662375598</v>
       </c>
       <c r="E18">
-        <v>0.9975761496796128</v>
+        <v>0.9979592899715556</v>
       </c>
       <c r="F18">
-        <v>1.024698668632144</v>
+        <v>1.024865931948803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047162687355212</v>
+        <v>1.047250179255614</v>
       </c>
       <c r="J18">
-        <v>1.016032703918281</v>
+        <v>1.016459366195776</v>
       </c>
       <c r="K18">
-        <v>1.029429564480607</v>
+        <v>1.029591090901717</v>
       </c>
       <c r="L18">
-        <v>1.011436853512931</v>
+        <v>1.011813341948966</v>
       </c>
       <c r="M18">
-        <v>1.038104267790884</v>
+        <v>1.038268820464433</v>
       </c>
       <c r="N18">
-        <v>1.009393499595155</v>
+        <v>1.01172401671311</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039624281356419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.039754386409576</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020296451371665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9886440812654324</v>
+        <v>0.9890924001759607</v>
       </c>
       <c r="D19">
-        <v>1.015869317813422</v>
+        <v>1.016037802074068</v>
       </c>
       <c r="E19">
-        <v>0.9976376120686932</v>
+        <v>0.9980257018790025</v>
       </c>
       <c r="F19">
-        <v>1.02437492833186</v>
+        <v>1.024544824336368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047101063504368</v>
+        <v>1.047190688928177</v>
       </c>
       <c r="J19">
-        <v>1.016005893192474</v>
+        <v>1.016436834026783</v>
       </c>
       <c r="K19">
-        <v>1.029356529750463</v>
+        <v>1.029522237072367</v>
       </c>
       <c r="L19">
-        <v>1.011432485252761</v>
+        <v>1.011813874589115</v>
       </c>
       <c r="M19">
-        <v>1.037723416141204</v>
+        <v>1.037890571302038</v>
       </c>
       <c r="N19">
-        <v>1.009357702926012</v>
+        <v>1.01168770008557</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038997246893285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.039129452926649</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020264918197442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9869022197431315</v>
+        <v>0.9874689915946887</v>
       </c>
       <c r="D20">
-        <v>1.014481507228181</v>
+        <v>1.014785970000237</v>
       </c>
       <c r="E20">
-        <v>0.9962469130068171</v>
+        <v>0.9967397412688649</v>
       </c>
       <c r="F20">
-        <v>1.02244592694481</v>
+        <v>1.02271436764267</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04649231227699</v>
+        <v>1.04665220168818</v>
       </c>
       <c r="J20">
-        <v>1.01494754572584</v>
+        <v>1.015491657652176</v>
       </c>
       <c r="K20">
-        <v>1.028274408259006</v>
+        <v>1.028573714867647</v>
       </c>
       <c r="L20">
-        <v>1.010356078519789</v>
+        <v>1.010840161675578</v>
       </c>
       <c r="M20">
-        <v>1.0361052494501</v>
+        <v>1.036369234549964</v>
       </c>
       <c r="N20">
-        <v>1.008962194551205</v>
+        <v>1.011468834224117</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037188217810108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.037397134859205</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02003479572057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9823219452375839</v>
+        <v>0.9832144045684641</v>
       </c>
       <c r="D21">
-        <v>1.01127490434391</v>
+        <v>1.011924575455063</v>
       </c>
       <c r="E21">
-        <v>0.992724528952218</v>
+        <v>0.9935015609855736</v>
       </c>
       <c r="F21">
-        <v>1.0191804055431</v>
+        <v>1.019705199456749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045304161782223</v>
+        <v>1.04564267034617</v>
       </c>
       <c r="J21">
-        <v>1.012577834679792</v>
+        <v>1.013431083668012</v>
       </c>
       <c r="K21">
-        <v>1.026045772957474</v>
+        <v>1.026683500821058</v>
       </c>
       <c r="L21">
-        <v>1.007845060870249</v>
+        <v>1.008607103105539</v>
       </c>
       <c r="M21">
-        <v>1.033807288037448</v>
+        <v>1.034322626366873</v>
       </c>
       <c r="N21">
-        <v>1.00816631832327</v>
+        <v>1.011336443313437</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035328572422256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.035736430994037</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019640461712123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9794040831943873</v>
+        <v>0.9805025487439128</v>
       </c>
       <c r="D22">
-        <v>1.009244380250027</v>
+        <v>1.010112476526724</v>
       </c>
       <c r="E22">
-        <v>0.9904912169638013</v>
+        <v>0.9914477462263995</v>
       </c>
       <c r="F22">
-        <v>1.01714308342996</v>
+        <v>1.017830232018241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044543204144986</v>
+        <v>1.044994534390858</v>
       </c>
       <c r="J22">
-        <v>1.011075644615034</v>
+        <v>1.012123015344905</v>
       </c>
       <c r="K22">
-        <v>1.024634901999225</v>
+        <v>1.025486230325705</v>
       </c>
       <c r="L22">
-        <v>1.006253427868067</v>
+        <v>1.007190550308888</v>
       </c>
       <c r="M22">
-        <v>1.03238241418482</v>
+        <v>1.033056554904562</v>
       </c>
       <c r="N22">
-        <v>1.007663794239543</v>
+        <v>1.011246632738259</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034200871235064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.0347344129297</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019389813028219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9809564828614875</v>
+        <v>0.9819333992895067</v>
       </c>
       <c r="D23">
-        <v>1.010324380425888</v>
+        <v>1.011067830389261</v>
       </c>
       <c r="E23">
-        <v>0.9916786407942131</v>
+        <v>0.9925289819215205</v>
       </c>
       <c r="F23">
-        <v>1.018226355022488</v>
+        <v>1.018820134292566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044949256664475</v>
+        <v>1.045336171555932</v>
       </c>
       <c r="J23">
-        <v>1.011874967800716</v>
+        <v>1.012807787470522</v>
       </c>
       <c r="K23">
-        <v>1.025385907047894</v>
+        <v>1.026115365593975</v>
       </c>
       <c r="L23">
-        <v>1.007100086953566</v>
+        <v>1.007933627361402</v>
       </c>
       <c r="M23">
-        <v>1.033140532426506</v>
+        <v>1.033723359729105</v>
       </c>
       <c r="N23">
-        <v>1.007931192695216</v>
+        <v>1.011252369801382</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034800876041926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.035262148309221</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019521046437313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869468416468814</v>
+        <v>0.987512798844397</v>
       </c>
       <c r="D24">
-        <v>1.014498144831115</v>
+        <v>1.014801680339777</v>
       </c>
       <c r="E24">
-        <v>0.9962772234989291</v>
+        <v>0.9967695042708943</v>
       </c>
       <c r="F24">
-        <v>1.022420289262234</v>
+        <v>1.022688021440941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046489597509277</v>
+        <v>1.046649000838857</v>
       </c>
       <c r="J24">
-        <v>1.014956789242643</v>
+        <v>1.015500153847475</v>
       </c>
       <c r="K24">
-        <v>1.028275352204914</v>
+        <v>1.028573754064766</v>
       </c>
       <c r="L24">
-        <v>1.010370032201044</v>
+        <v>1.010853589539868</v>
       </c>
       <c r="M24">
-        <v>1.036064796076477</v>
+        <v>1.036328089819142</v>
       </c>
       <c r="N24">
-        <v>1.008962086847042</v>
+        <v>1.01146490120141</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037115249362347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.03732362966043</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020031986911655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9936626456525317</v>
+        <v>0.9939314068286383</v>
       </c>
       <c r="D25">
-        <v>1.019187773884014</v>
+        <v>1.019112885737539</v>
       </c>
       <c r="E25">
-        <v>1.001464805062685</v>
+        <v>1.001700403973755</v>
       </c>
       <c r="F25">
-        <v>1.027147952403769</v>
+        <v>1.027145421399678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048160138807397</v>
+        <v>1.048123828714947</v>
       </c>
       <c r="J25">
-        <v>1.018405185627803</v>
+        <v>1.018664743659006</v>
       </c>
       <c r="K25">
-        <v>1.031495351458476</v>
+        <v>1.031421570993434</v>
       </c>
       <c r="L25">
-        <v>1.014040424298008</v>
+        <v>1.014272380585625</v>
       </c>
       <c r="M25">
-        <v>1.039338957611391</v>
+        <v>1.039336463308379</v>
       </c>
       <c r="N25">
-        <v>1.010115393311156</v>
+        <v>1.012258655932624</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039706536233819</v>
+        <v>1.039704562158044</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.0206218433376</v>
       </c>
     </row>
   </sheetData>
